--- a/王语晗/tp_shop_mail.xlsx
+++ b/王语晗/tp_shop_mail.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GradeThreeTermFirst\RealityTraining\"/>
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
-    <t>8@qq.com</t>
-  </si>
-  <si>
     <t>1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -41,9 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9@qq.com</t>
-  </si>
-  <si>
     <t>1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -56,16 +50,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7@qq.com</t>
-  </si>
-  <si>
     <t>ab1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6@qq.com</t>
-  </si>
-  <si>
     <t>1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,21 +65,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5@qq.com</t>
-  </si>
-  <si>
     <t>1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>@#$%&amp;*</t>
+  </si>
+  <si>
+    <t>21@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +107,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -125,21 +139,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -417,10 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -429,92 +451,100 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>8</v>
+      <c r="A4" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>10</v>
+      <c r="A5" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>14</v>
+      <c r="A6" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>